--- a/JieLongMod_6/Excel/J剧本设定接力第一棒.xlsx
+++ b/JieLongMod_6/Excel/J剧本设定接力第一棒.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>剧本ID_ScenarioID</t>
   </si>
@@ -107,13 +107,52 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>第一棒玲</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一棒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铃</t>
+    </r>
   </si>
   <si>
     <t>铃[SkipAvata][SkipName]</t>
   </si>
   <si>
-    <t>D#character:玲</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D#character:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铃_道观服</t>
+    </r>
+  </si>
+  <si>
+    <t>3D#铃_道观服</t>
   </si>
   <si>
     <t>元气开朗的少女，敏锐机警，不惧困境。明面上是录像店“Random Play”的店长，暗地里是新艾利都业界颇有名气的绳匠“法厄同”，以独有的引导技术和极高的委托达成率而闻名。
@@ -121,20 +160,68 @@
 兄妹二人的另一身份是处理空洞问题的「绳匠」，合称「法厄同」，是在业界颇负盛名的传奇绳匠。兄妹二人通过计算机运行空洞深潜系统（Hollow Deep Dive System），由兄妹中的其中一人将自身知觉与投放到空洞的邦布伊埃斯进行连接，以此在空洞中进行活动。</t>
   </si>
   <si>
-    <t>HERO_SET_STATU*#magic_talent#4
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HERO_SET_STATU*#magic_talent#4
 HERO_SET_STATU*#s_臂力成长#10
 HERO_SET_STATU*#s_身法成长#10
 HERO_SET_STATU*#s_根骨成长#10
 HERO_SET_STATU*#s_精神成长#10
 SET_SKILLPAGE*第一棒#2
 SILENCE_GETITEMS*回城卷轴,1|智慧结晶,3|恢复小,1|气力小,1
-RUN_SCRIPT_FUNC*GameUtils#LearnFightSkills#飞腿,1|踩脚趾,1|直拳,1</t>
-  </si>
-  <si>
-    <t>EVENT*第一棒开场动画</t>
-  </si>
-  <si>
+RUN_SCRIPT_FUNC*GameUtils#LearnFightSkills#飞腿,1|踩脚趾,1|直拳,1
+</t>
+    </r>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PLAYER_REPLACE_NPC*铃#1
+TEAM_JOIN_ROLE*哲
+CHG_PERSON_FV*哲#100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EVENT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一棒开局_铃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">hard_level:1
 </t>
     </r>
@@ -146,7 +233,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>init_pos:suibianguan:740,1174
+      <t>init_pos:随便观:740,1174
 exclusive_story:1</t>
     </r>
   </si>
@@ -157,12 +244,88 @@
     <t>哲[SkipAvata][SkipName]</t>
   </si>
   <si>
-    <t>C#character:哲</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C#character:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哲_道观服</t>
+    </r>
+  </si>
+  <si>
+    <t>3D#哲_道观服</t>
   </si>
   <si>
     <t>明面上是录像店“Random Play”的店长，暗地里是新艾利都业界颇有名气的绳匠“法厄同”，以独有的引导技术和极高的委托达成率而闻名。
 旧艾利都因零号空洞毁灭后，兄妹二人搬到新艾利都居住，一起经营录像店「Random Play」，店面位于六分街街尾。
 兄妹二人的另一身份是处理空洞问题的「绳匠」，合称「法厄同」，是在业界颇负盛名的传奇绳匠。兄妹二人通过计算机运行空洞深潜系统（Hollow Deep Dive System），由兄妹中的其中一人将自身知觉与投放到空洞的邦布伊埃斯进行连接，以此在空洞中进行活动。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HERO_SET_STATU*#magic_talent#4
+HERO_SET_STATU*#s_臂力成长#10
+HERO_SET_STATU*#s_身法成长#10
+HERO_SET_STATU*#s_根骨成长#10
+HERO_SET_STATU*#s_精神成长#10
+SET_SKILLPAGE*第一棒#2
+SILENCE_GETITEMS*回城卷轴,1|智慧结晶,3|恢复小,1|气力小,1
+RUN_SCRIPT_FUNC*GameUtils#LearnFightSkills#飞腿,1|踩脚趾,1|直拳,1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PLAYER_REPLACE_NPC*哲#1
+TEAM_JOIN_ROLE*铃
+CHG_PERSON_FV*铃#100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EVENT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一棒开局_哲</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -175,7 +338,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,7 +368,19 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -730,140 +905,140 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -887,19 +1062,28 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1251,8 +1435,8 @@
   <sheetPr/>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
@@ -1317,80 +1501,80 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="150" customHeight="1" spans="1:14">
+    <row r="2" s="2" customFormat="1" ht="156" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="10">
+      <c r="G2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="11">
         <v>1</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="10">
+      <c r="I2" s="14"/>
+      <c r="J2" s="11">
         <v>1</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="10">
+      <c r="K2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="11">
         <v>779</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>20</v>
+      <c r="N2" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="150" customHeight="1" spans="1:14">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="2" customFormat="1" ht="156" spans="1:14">
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="11">
+        <v>780</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10">
-        <v>780</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
